--- a/Document/Bill-ES-Thay-Loi.xlsx
+++ b/Document/Bill-ES-Thay-Loi.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CP_SmartGarden\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Capstone" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment ESS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,9 +135,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -259,14 +262,14 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -275,13 +278,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,8 +312,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,6 +429,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -869,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
